--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm\框架\interview_frame\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5993F5-65E7-484F-B29E-BF6887058598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4944D1BE-E157-4816-ABAA-54C534C0AA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26114" yWindow="2432" windowWidth="17425" windowHeight="9052" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>编号</t>
   </si>
@@ -138,6 +138,14 @@
   </si>
   <si>
     <t>Failed</t>
+  </si>
+  <si>
+    <t>http://39.98.138.157/shopxo/index.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaokai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -504,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -513,6 +521,7 @@
     <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="3" customWidth="1"/>
   </cols>
@@ -602,7 +611,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -707,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38692081-9B0F-4208-B3CB-C863BF455DAC}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -771,7 +780,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pycharm\框架\interview_frame\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4944D1BE-E157-4816-ABAA-54C534C0AA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068D2B19-0A1B-4E77-8D61-4FC5D33067C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>编号</t>
   </si>
@@ -59,88 +59,105 @@
     <t>visit</t>
   </si>
   <si>
+    <t>访问电商系统</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>link text</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>进入登录页</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>accounts</t>
+  </si>
+  <si>
+    <t>xuzhu666</t>
+  </si>
+  <si>
+    <t>输入账号</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>输入密码</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//button[text()="登录"]</t>
+  </si>
+  <si>
+    <t>点击登录按钮</t>
+  </si>
+  <si>
+    <t>assert_text</t>
+  </si>
+  <si>
+    <t>退出</t>
+  </si>
+  <si>
+    <t>校验登录后是否存在有退出的元素</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>强制等待5秒</t>
+  </si>
+  <si>
+    <t>quit</t>
+  </si>
+  <si>
+    <t>关闭浏览器并释放资源</t>
+  </si>
+  <si>
+    <t>校验登录是否成功</t>
+  </si>
+  <si>
+    <t>退出1</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>http://39.98.138.157/shopxo/index.php</t>
-  </si>
-  <si>
-    <t>访问电商系统</t>
-  </si>
-  <si>
-    <t>click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>link text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>登录</t>
-  </si>
-  <si>
-    <t>进入登录页</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>accounts</t>
-  </si>
-  <si>
-    <t>xuzhu666</t>
-  </si>
-  <si>
-    <t>输入账号</t>
-  </si>
-  <si>
-    <t>pwd</t>
-  </si>
-  <si>
-    <t>输入密码</t>
-  </si>
-  <si>
-    <t>xpath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>//button[text()="登录"]</t>
-  </si>
-  <si>
-    <t>点击登录按钮</t>
-  </si>
-  <si>
-    <t>assert_text</t>
-  </si>
-  <si>
-    <t>退出</t>
-  </si>
-  <si>
-    <t>校验登录后是否存在有退出的元素</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>sleep</t>
-  </si>
-  <si>
-    <t>强制等待5秒</t>
-  </si>
-  <si>
-    <t>quit</t>
-  </si>
-  <si>
-    <t>关闭浏览器并释放资源</t>
-  </si>
-  <si>
-    <t>校验登录是否成功</t>
-  </si>
-  <si>
-    <t>退出1</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>http://39.98.138.157/shopxo/index.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -513,7 +530,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -574,10 +591,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -585,16 +602,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -602,19 +619,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -622,19 +639,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>123456</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -642,16 +659,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -659,22 +676,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -682,13 +699,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -696,10 +713,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
         <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -708,7 +725,7 @@
     <hyperlink ref="E3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -780,10 +797,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -791,16 +808,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -808,19 +825,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -828,19 +845,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3">
         <v>123456</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -848,16 +865,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -865,22 +882,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -888,13 +905,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3">
         <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -902,10 +919,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
